--- a/test/test_lista02_complex.xlsx
+++ b/test/test_lista02_complex.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Oggetto mail - Destinatario 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Il campo facoltativo è compilato.</t>
+    <t xml:space="preserve">Il campo facoltativo è compilato. </t>
   </si>
   <si>
     <t xml:space="preserve">giuseppe@synapta.it</t>
@@ -197,10 +197,10 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="25.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.96"/>
